--- a/File/工作簿1.xlsx
+++ b/File/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB97411E-E3D9-49D4-8BDA-F9A76E5A3D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989EE45-381E-4886-9583-D27056910E6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="3096" windowWidth="17280" windowHeight="9420" xr2:uid="{96852F80-AD2A-4547-AECE-2B857FD4D683}"/>
+    <workbookView xWindow="2484" yWindow="2712" windowWidth="17280" windowHeight="9420" xr2:uid="{96852F80-AD2A-4547-AECE-2B857FD4D683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,23 +32,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,74 +105,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -192,7 +124,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -484,20 +416,20 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
